--- a/ExampleFiles/Gantt/tasks.xlsx
+++ b/ExampleFiles/Gantt/tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E610B9-6BBA-4AF3-BEBF-0E5E79B31986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30025814-CAE4-4339-901C-9A0D13DA3BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TasksSimple" sheetId="1" r:id="rId1"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,9 +522,6 @@
       <c r="E3">
         <v>55</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="H3">
         <v>1235</v>
       </c>
@@ -545,9 +542,6 @@
       <c r="E4">
         <v>15</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="H4">
         <v>123</v>
       </c>
@@ -587,9 +581,6 @@
       </c>
       <c r="E6">
         <v>50</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>1236</v>
@@ -747,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F4B73-FE05-4256-822F-F24B48BAD21F}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
